--- a/Testes_backups/TABELA-DE-AÇO R8.xlsx
+++ b/Testes_backups/TABELA-DE-AÇO R8.xlsx
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1196,20 +1196,95 @@
     <xf numFmtId="12" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,84 +1320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,20 +1608,20 @@
   </sheetPr>
   <dimension ref="A1:Y245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219:H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="59" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="59" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="84" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="59" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="8" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" style="8" customWidth="1"/>
@@ -1637,57 +1634,57 @@
     <col min="18" max="18" width="10" style="8" customWidth="1"/>
     <col min="19" max="19" width="6.88671875" style="8" customWidth="1"/>
     <col min="20" max="20" width="5.109375" style="8" customWidth="1"/>
-    <col min="21" max="22" width="9.109375" style="8" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="8"/>
+    <col min="21" max="28" width="9.109375" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
       <c r="O1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="93" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
       <c r="R2" s="8" t="s">
@@ -1705,24 +1702,24 @@
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="47"/>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="47"/>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="31" t="s">
         <v>14</v>
       </c>
@@ -1754,19 +1751,19 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="92"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
@@ -1801,19 +1798,19 @@
       <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="92"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="31" t="s">
         <v>21</v>
       </c>
@@ -1848,19 +1845,19 @@
       <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1895,19 +1892,19 @@
       <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="92"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="31" t="s">
         <v>21</v>
       </c>
@@ -1942,19 +1939,19 @@
       <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="92"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="31" t="s">
         <v>21</v>
       </c>
@@ -1989,19 +1986,19 @@
       <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="92"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="31" t="s">
         <v>21</v>
       </c>
@@ -2036,19 +2033,19 @@
       <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="92"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="31" t="s">
         <v>21</v>
       </c>
@@ -2083,19 +2080,19 @@
       <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="92"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="31" t="s">
         <v>21</v>
       </c>
@@ -2130,19 +2127,19 @@
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="31" t="s">
         <v>21</v>
       </c>
@@ -2177,19 +2174,19 @@
       <c r="A13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="31" t="s">
         <v>21</v>
       </c>
@@ -2224,19 +2221,19 @@
       <c r="A14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="92"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="31" t="s">
         <v>21</v>
       </c>
@@ -2271,19 +2268,19 @@
       <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="92"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="31" t="s">
         <v>21</v>
       </c>
@@ -2318,19 +2315,19 @@
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="92"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="31" t="s">
         <v>21</v>
       </c>
@@ -2364,19 +2361,19 @@
       <c r="A17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="92"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="31" t="s">
         <v>21</v>
       </c>
@@ -2410,19 +2407,19 @@
       <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="92"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="31" t="s">
         <v>21</v>
       </c>
@@ -2456,19 +2453,19 @@
       <c r="A19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="92"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="31" t="s">
         <v>21</v>
       </c>
@@ -2502,19 +2499,19 @@
       <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="92"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2548,19 +2545,19 @@
       <c r="A21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="92"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="31" t="s">
         <v>21</v>
       </c>
@@ -2594,19 +2591,19 @@
       <c r="A22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="92"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="31" t="s">
         <v>21</v>
       </c>
@@ -2640,19 +2637,19 @@
       <c r="A23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="92"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="31" t="s">
         <v>21</v>
       </c>
@@ -2686,19 +2683,19 @@
       <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="92"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="31" t="s">
         <v>21</v>
       </c>
@@ -2732,19 +2729,19 @@
       <c r="A25" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="92"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="31" t="s">
         <v>21</v>
       </c>
@@ -2778,19 +2775,19 @@
       <c r="A26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="92"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="31" t="s">
         <v>21</v>
       </c>
@@ -2824,19 +2821,19 @@
       <c r="A27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="92"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="31" t="s">
         <v>21</v>
       </c>
@@ -2870,19 +2867,19 @@
       <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="92"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="31" t="s">
         <v>21</v>
       </c>
@@ -2916,19 +2913,19 @@
       <c r="A29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="92"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="31" t="s">
         <v>21</v>
       </c>
@@ -2962,19 +2959,19 @@
       <c r="A30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="75"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="75"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="92"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="31" t="s">
         <v>21</v>
       </c>
@@ -3008,19 +3005,19 @@
       <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="75"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="92"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="31" t="s">
         <v>21</v>
       </c>
@@ -3054,19 +3051,19 @@
       <c r="A32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="75"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="75"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="92"/>
+      <c r="H32" s="66"/>
       <c r="I32" s="31" t="s">
         <v>21</v>
       </c>
@@ -3100,19 +3097,19 @@
       <c r="A33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="75"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="75"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="92"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="31" t="s">
         <v>21</v>
       </c>
@@ -3146,19 +3143,19 @@
       <c r="A34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="92"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="31" t="s">
         <v>21</v>
       </c>
@@ -3207,19 +3204,19 @@
       <c r="A35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="75"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="92"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="31" t="s">
         <v>21</v>
       </c>
@@ -3258,19 +3255,19 @@
       <c r="A36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="92"/>
+      <c r="H36" s="66"/>
       <c r="I36" s="31" t="s">
         <v>21</v>
       </c>
@@ -3309,19 +3306,19 @@
       <c r="A37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="75"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="92"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="31" t="s">
         <v>21</v>
       </c>
@@ -3360,19 +3357,19 @@
       <c r="A38" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="75"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="92"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="31" t="s">
         <v>21</v>
       </c>
@@ -3411,23 +3408,19 @@
       <c r="A39" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="75">
-        <v>0</v>
-      </c>
+      <c r="F39" s="52"/>
       <c r="G39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="92">
-        <v>0</v>
-      </c>
+      <c r="H39" s="66"/>
       <c r="I39" s="31" t="s">
         <v>21</v>
       </c>
@@ -3469,23 +3462,19 @@
       <c r="A40" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="75"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="75">
-        <v>0</v>
-      </c>
+      <c r="F40" s="52"/>
       <c r="G40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="92">
-        <v>0</v>
-      </c>
+      <c r="H40" s="66"/>
       <c r="I40" s="31" t="s">
         <v>21</v>
       </c>
@@ -3527,23 +3516,19 @@
       <c r="A41" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="75"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="75">
-        <v>0</v>
-      </c>
+      <c r="F41" s="52"/>
       <c r="G41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="92">
-        <v>0</v>
-      </c>
+      <c r="H41" s="66"/>
       <c r="I41" s="31" t="s">
         <v>21</v>
       </c>
@@ -3585,23 +3570,19 @@
       <c r="A42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="75">
-        <v>0</v>
-      </c>
+      <c r="F42" s="52"/>
       <c r="G42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="92">
-        <v>0</v>
-      </c>
+      <c r="H42" s="66"/>
       <c r="I42" s="31" t="s">
         <v>21</v>
       </c>
@@ -3643,23 +3624,19 @@
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="75"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="75"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="75">
-        <v>0</v>
-      </c>
+      <c r="F43" s="52"/>
       <c r="G43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="92">
-        <v>0</v>
-      </c>
+      <c r="H43" s="66"/>
       <c r="I43" s="31" t="s">
         <v>21</v>
       </c>
@@ -3701,19 +3678,19 @@
       <c r="A44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="75"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="75"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="92"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="31" t="s">
         <v>21</v>
       </c>
@@ -3758,19 +3735,19 @@
       <c r="A45" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="75"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="75"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="92"/>
+      <c r="H45" s="66"/>
       <c r="I45" s="31" t="s">
         <v>21</v>
       </c>
@@ -3812,19 +3789,19 @@
       <c r="A46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="75"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="75"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="75"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="92"/>
+      <c r="H46" s="66"/>
       <c r="I46" s="31" t="s">
         <v>21</v>
       </c>
@@ -3866,19 +3843,19 @@
       <c r="A47" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="75"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="75"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="92"/>
+      <c r="H47" s="66"/>
       <c r="I47" s="31" t="s">
         <v>21</v>
       </c>
@@ -3920,19 +3897,19 @@
       <c r="A48" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="75"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="75"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="75"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="92"/>
+      <c r="H48" s="66"/>
       <c r="I48" s="31" t="s">
         <v>21</v>
       </c>
@@ -3974,19 +3951,19 @@
       <c r="A49" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="75"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="75"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="92"/>
+      <c r="H49" s="66"/>
       <c r="I49" s="31" t="s">
         <v>21</v>
       </c>
@@ -4028,19 +4005,19 @@
       <c r="A50" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="75"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="75"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="75"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="92"/>
+      <c r="H50" s="66"/>
       <c r="I50" s="31" t="s">
         <v>21</v>
       </c>
@@ -4079,21 +4056,19 @@
       <c r="A51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="75"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="75"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="75">
-        <v>0</v>
-      </c>
+      <c r="F51" s="52"/>
       <c r="G51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="92"/>
+      <c r="H51" s="66"/>
       <c r="I51" s="31" t="s">
         <v>21</v>
       </c>
@@ -4132,21 +4107,19 @@
       <c r="A52" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="75"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="75"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="75">
-        <v>0</v>
-      </c>
+      <c r="F52" s="52"/>
       <c r="G52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="92"/>
+      <c r="H52" s="66"/>
       <c r="I52" s="31" t="s">
         <v>21</v>
       </c>
@@ -4185,23 +4158,19 @@
       <c r="A53" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="75"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="75"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="75">
-        <v>0</v>
-      </c>
+      <c r="F53" s="52"/>
       <c r="G53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="92">
-        <v>0</v>
-      </c>
+      <c r="H53" s="66"/>
       <c r="I53" s="31" t="s">
         <v>21</v>
       </c>
@@ -4240,23 +4209,19 @@
       <c r="A54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="75"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="75"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="75">
-        <v>0</v>
-      </c>
+      <c r="F54" s="52"/>
       <c r="G54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="92">
-        <v>0</v>
-      </c>
+      <c r="H54" s="66"/>
       <c r="I54" s="31" t="s">
         <v>21</v>
       </c>
@@ -4295,23 +4260,19 @@
       <c r="A55" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="75"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="75">
-        <v>0</v>
-      </c>
+      <c r="F55" s="52"/>
       <c r="G55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="92">
-        <v>0</v>
-      </c>
+      <c r="H55" s="66"/>
       <c r="I55" s="31" t="s">
         <v>21</v>
       </c>
@@ -4350,23 +4311,19 @@
       <c r="A56" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="75"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="75">
-        <v>0</v>
-      </c>
+      <c r="F56" s="52"/>
       <c r="G56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="92">
-        <v>0</v>
-      </c>
+      <c r="H56" s="66"/>
       <c r="I56" s="31" t="s">
         <v>21</v>
       </c>
@@ -4405,23 +4362,19 @@
       <c r="A57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="75"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="75"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="75">
-        <v>0</v>
-      </c>
+      <c r="F57" s="52"/>
       <c r="G57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="92">
-        <v>0</v>
-      </c>
+      <c r="H57" s="66"/>
       <c r="I57" s="31" t="s">
         <v>21</v>
       </c>
@@ -4460,23 +4413,19 @@
       <c r="A58" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="75"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="75"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="75">
-        <v>0</v>
-      </c>
+      <c r="F58" s="52"/>
       <c r="G58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="92">
-        <v>0</v>
-      </c>
+      <c r="H58" s="66"/>
       <c r="I58" s="31" t="s">
         <v>21</v>
       </c>
@@ -4515,23 +4464,19 @@
       <c r="A59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="75"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="75"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="75">
-        <v>0</v>
-      </c>
+      <c r="F59" s="52"/>
       <c r="G59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="92">
-        <v>0</v>
-      </c>
+      <c r="H59" s="66"/>
       <c r="I59" s="31" t="s">
         <v>21</v>
       </c>
@@ -4573,23 +4518,19 @@
       <c r="A60" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="75"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="75"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="75">
-        <v>0</v>
-      </c>
+      <c r="F60" s="52"/>
       <c r="G60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="92">
-        <v>0</v>
-      </c>
+      <c r="H60" s="66"/>
       <c r="I60" s="31" t="s">
         <v>21</v>
       </c>
@@ -4631,23 +4572,19 @@
       <c r="A61" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="75"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="75"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="75">
-        <v>0</v>
-      </c>
+      <c r="F61" s="52"/>
       <c r="G61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="92">
-        <v>0</v>
-      </c>
+      <c r="H61" s="66"/>
       <c r="I61" s="31" t="s">
         <v>21</v>
       </c>
@@ -4689,23 +4626,19 @@
       <c r="A62" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="75"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="75"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="75">
-        <v>0</v>
-      </c>
+      <c r="F62" s="52"/>
       <c r="G62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="92">
-        <v>0</v>
-      </c>
+      <c r="H62" s="66"/>
       <c r="I62" s="31" t="s">
         <v>21</v>
       </c>
@@ -4744,23 +4677,19 @@
       <c r="A63" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="75"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="75"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="75">
-        <v>0</v>
-      </c>
+      <c r="F63" s="52"/>
       <c r="G63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="92">
-        <v>0</v>
-      </c>
+      <c r="H63" s="66"/>
       <c r="I63" s="31" t="s">
         <v>21</v>
       </c>
@@ -4799,23 +4728,19 @@
       <c r="A64" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="75"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="75"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="75">
-        <v>0</v>
-      </c>
+      <c r="F64" s="52"/>
       <c r="G64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="92">
-        <v>0</v>
-      </c>
+      <c r="H64" s="66"/>
       <c r="I64" s="31" t="s">
         <v>21</v>
       </c>
@@ -4854,23 +4779,19 @@
       <c r="A65" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="75"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="75"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="75">
-        <v>0</v>
-      </c>
+      <c r="F65" s="52"/>
       <c r="G65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="92">
-        <v>0</v>
-      </c>
+      <c r="H65" s="66"/>
       <c r="I65" s="31" t="s">
         <v>21</v>
       </c>
@@ -4909,23 +4830,19 @@
       <c r="A66" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="75"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="75"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="75">
-        <v>0</v>
-      </c>
+      <c r="F66" s="52"/>
       <c r="G66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="92">
-        <v>0</v>
-      </c>
+      <c r="H66" s="66"/>
       <c r="I66" s="31" t="s">
         <v>21</v>
       </c>
@@ -4964,23 +4881,19 @@
       <c r="A67" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="75"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="75"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="75">
-        <v>0</v>
-      </c>
+      <c r="F67" s="52"/>
       <c r="G67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="92">
-        <v>0</v>
-      </c>
+      <c r="H67" s="66"/>
       <c r="I67" s="31" t="s">
         <v>21</v>
       </c>
@@ -5019,23 +4932,19 @@
       <c r="A68" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="75"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="75"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="75">
-        <v>0</v>
-      </c>
+      <c r="F68" s="52"/>
       <c r="G68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="92">
-        <v>0</v>
-      </c>
+      <c r="H68" s="66"/>
       <c r="I68" s="31" t="s">
         <v>21</v>
       </c>
@@ -5074,23 +4983,19 @@
       <c r="A69" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="75"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="75"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="75">
-        <v>0</v>
-      </c>
+      <c r="F69" s="52"/>
       <c r="G69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="92">
-        <v>0</v>
-      </c>
+      <c r="H69" s="66"/>
       <c r="I69" s="31" t="s">
         <v>21</v>
       </c>
@@ -5129,23 +5034,19 @@
       <c r="A70" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="75"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="75"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="75">
-        <v>0</v>
-      </c>
+      <c r="F70" s="52"/>
       <c r="G70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="92">
-        <v>0</v>
-      </c>
+      <c r="H70" s="66"/>
       <c r="I70" s="31" t="s">
         <v>21</v>
       </c>
@@ -5184,23 +5085,19 @@
       <c r="A71" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="75"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="75"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="75">
-        <v>0</v>
-      </c>
+      <c r="F71" s="52"/>
       <c r="G71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="92">
-        <v>0</v>
-      </c>
+      <c r="H71" s="66"/>
       <c r="I71" s="31" t="s">
         <v>21</v>
       </c>
@@ -5239,23 +5136,19 @@
       <c r="A72" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="75"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="75"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="75">
-        <v>0</v>
-      </c>
+      <c r="F72" s="52"/>
       <c r="G72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="92">
-        <v>0</v>
-      </c>
+      <c r="H72" s="66"/>
       <c r="I72" s="31" t="s">
         <v>21</v>
       </c>
@@ -5288,23 +5181,19 @@
       <c r="A73" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="75"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="75"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="75">
-        <v>0</v>
-      </c>
+      <c r="F73" s="52"/>
       <c r="G73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="92">
-        <v>0</v>
-      </c>
+      <c r="H73" s="66"/>
       <c r="I73" s="31" t="s">
         <v>21</v>
       </c>
@@ -5337,23 +5226,19 @@
       <c r="A74" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="75"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="75"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="75">
-        <v>0</v>
-      </c>
+      <c r="F74" s="52"/>
       <c r="G74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="92">
-        <v>0</v>
-      </c>
+      <c r="H74" s="66"/>
       <c r="I74" s="31" t="s">
         <v>21</v>
       </c>
@@ -5386,23 +5271,19 @@
       <c r="A75" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="75"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="75"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="75">
-        <v>0</v>
-      </c>
+      <c r="F75" s="52"/>
       <c r="G75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="92">
-        <v>0</v>
-      </c>
+      <c r="H75" s="66"/>
       <c r="I75" s="31" t="s">
         <v>21</v>
       </c>
@@ -5435,23 +5316,19 @@
       <c r="A76" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="75"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="75"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F76" s="75">
-        <v>0</v>
-      </c>
+      <c r="F76" s="52"/>
       <c r="G76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="92">
-        <v>0</v>
-      </c>
+      <c r="H76" s="66"/>
       <c r="I76" s="31" t="s">
         <v>21</v>
       </c>
@@ -5484,23 +5361,19 @@
       <c r="A77" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="75"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="75"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="75">
-        <v>0</v>
-      </c>
+      <c r="F77" s="52"/>
       <c r="G77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="92">
-        <v>0</v>
-      </c>
+      <c r="H77" s="66"/>
       <c r="I77" s="31" t="s">
         <v>21</v>
       </c>
@@ -5533,23 +5406,19 @@
       <c r="A78" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="75"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="75"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F78" s="75">
-        <v>0</v>
-      </c>
+      <c r="F78" s="52"/>
       <c r="G78" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="92">
-        <v>0</v>
-      </c>
+      <c r="H78" s="66"/>
       <c r="I78" s="31" t="s">
         <v>21</v>
       </c>
@@ -5582,23 +5451,19 @@
       <c r="A79" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="75"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="75"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="75">
-        <v>0</v>
-      </c>
+      <c r="F79" s="52"/>
       <c r="G79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="92">
-        <v>0</v>
-      </c>
+      <c r="H79" s="66"/>
       <c r="I79" s="31" t="s">
         <v>21</v>
       </c>
@@ -5631,23 +5496,19 @@
       <c r="A80" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="75"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="75"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="75">
-        <v>0</v>
-      </c>
+      <c r="F80" s="52"/>
       <c r="G80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="92">
-        <v>0</v>
-      </c>
+      <c r="H80" s="66"/>
       <c r="I80" s="31" t="s">
         <v>21</v>
       </c>
@@ -5680,23 +5541,19 @@
       <c r="A81" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="75"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="75"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="75">
-        <v>0</v>
-      </c>
+      <c r="F81" s="52"/>
       <c r="G81" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="92">
-        <v>0</v>
-      </c>
+      <c r="H81" s="66"/>
       <c r="I81" s="31" t="s">
         <v>21</v>
       </c>
@@ -5729,23 +5586,19 @@
       <c r="A82" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="75"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="75"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="75">
-        <v>0</v>
-      </c>
+      <c r="F82" s="52"/>
       <c r="G82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="92">
-        <v>0</v>
-      </c>
+      <c r="H82" s="66"/>
       <c r="I82" s="31" t="s">
         <v>21</v>
       </c>
@@ -5785,23 +5638,19 @@
       <c r="A83" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="75"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="75"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="75">
-        <v>0</v>
-      </c>
+      <c r="F83" s="52"/>
       <c r="G83" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="92">
-        <v>0</v>
-      </c>
+      <c r="H83" s="66"/>
       <c r="I83" s="31" t="s">
         <v>21</v>
       </c>
@@ -5838,23 +5687,19 @@
       <c r="A84" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="75"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F84" s="75">
-        <v>0</v>
-      </c>
+      <c r="F84" s="52"/>
       <c r="G84" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="92">
-        <v>0</v>
-      </c>
+      <c r="H84" s="66"/>
       <c r="I84" s="31" t="s">
         <v>21</v>
       </c>
@@ -5891,23 +5736,19 @@
       <c r="A85" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="75"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="75"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="75">
-        <v>0</v>
-      </c>
+      <c r="F85" s="52"/>
       <c r="G85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="92">
-        <v>0</v>
-      </c>
+      <c r="H85" s="66"/>
       <c r="I85" s="31" t="s">
         <v>21</v>
       </c>
@@ -5944,23 +5785,19 @@
       <c r="A86" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="75"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="75"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="75">
-        <v>0</v>
-      </c>
+      <c r="F86" s="52"/>
       <c r="G86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="92">
-        <v>0</v>
-      </c>
+      <c r="H86" s="66"/>
       <c r="I86" s="31" t="s">
         <v>21</v>
       </c>
@@ -5997,23 +5834,19 @@
       <c r="A87" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="75"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="75"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="75">
-        <v>0</v>
-      </c>
+      <c r="F87" s="52"/>
       <c r="G87" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="92">
-        <v>0</v>
-      </c>
+      <c r="H87" s="66"/>
       <c r="I87" s="31" t="s">
         <v>21</v>
       </c>
@@ -6050,23 +5883,19 @@
       <c r="A88" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="75"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="75"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="75">
-        <v>0</v>
-      </c>
+      <c r="F88" s="52"/>
       <c r="G88" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="92">
-        <v>0</v>
-      </c>
+      <c r="H88" s="66"/>
       <c r="I88" s="31" t="s">
         <v>21</v>
       </c>
@@ -6103,23 +5932,19 @@
       <c r="A89" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="75"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="75"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F89" s="75">
-        <v>0</v>
-      </c>
+      <c r="F89" s="52"/>
       <c r="G89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="92">
-        <v>0</v>
-      </c>
+      <c r="H89" s="66"/>
       <c r="I89" s="31" t="s">
         <v>21</v>
       </c>
@@ -6156,23 +5981,19 @@
       <c r="A90" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="75"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="75"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="75">
-        <v>0</v>
-      </c>
+      <c r="F90" s="52"/>
       <c r="G90" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="92">
-        <v>0</v>
-      </c>
+      <c r="H90" s="66"/>
       <c r="I90" s="31" t="s">
         <v>21</v>
       </c>
@@ -6209,23 +6030,19 @@
       <c r="A91" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="75"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="75"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="75">
-        <v>0</v>
-      </c>
+      <c r="F91" s="52"/>
       <c r="G91" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="92">
-        <v>0</v>
-      </c>
+      <c r="H91" s="66"/>
       <c r="I91" s="31" t="s">
         <v>21</v>
       </c>
@@ -6262,23 +6079,19 @@
       <c r="A92" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="75"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="75"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="75">
-        <v>0</v>
-      </c>
+      <c r="F92" s="52"/>
       <c r="G92" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="92">
-        <v>0</v>
-      </c>
+      <c r="H92" s="66"/>
       <c r="I92" s="31" t="s">
         <v>21</v>
       </c>
@@ -6311,23 +6124,19 @@
       <c r="A93" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="75"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="75"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="75">
-        <v>0</v>
-      </c>
+      <c r="F93" s="52"/>
       <c r="G93" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="92">
-        <v>0</v>
-      </c>
+      <c r="H93" s="66"/>
       <c r="I93" s="31" t="s">
         <v>21</v>
       </c>
@@ -6360,23 +6169,19 @@
       <c r="A94" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="75"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="75"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="75">
-        <v>0</v>
-      </c>
+      <c r="F94" s="52"/>
       <c r="G94" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="92">
-        <v>0</v>
-      </c>
+      <c r="H94" s="66"/>
       <c r="I94" s="31" t="s">
         <v>21</v>
       </c>
@@ -6409,23 +6214,19 @@
       <c r="A95" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="75"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="75"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="75">
-        <v>0</v>
-      </c>
+      <c r="F95" s="52"/>
       <c r="G95" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="92">
-        <v>0</v>
-      </c>
+      <c r="H95" s="66"/>
       <c r="I95" s="31" t="s">
         <v>21</v>
       </c>
@@ -6458,23 +6259,19 @@
       <c r="A96" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="75"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="75"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="75">
-        <v>0</v>
-      </c>
+      <c r="F96" s="52"/>
       <c r="G96" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="92">
-        <v>0</v>
-      </c>
+      <c r="H96" s="66"/>
       <c r="I96" s="31" t="s">
         <v>21</v>
       </c>
@@ -6511,23 +6308,19 @@
       <c r="A97" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="75"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="75"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="75">
-        <v>0</v>
-      </c>
+      <c r="F97" s="52"/>
       <c r="G97" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="92">
-        <v>0</v>
-      </c>
+      <c r="H97" s="66"/>
       <c r="I97" s="31" t="s">
         <v>21</v>
       </c>
@@ -6564,19 +6357,15 @@
       <c r="A98" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="75"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="75"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="31"/>
-      <c r="F98" s="75">
-        <v>0</v>
-      </c>
+      <c r="F98" s="52"/>
       <c r="G98" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H98" s="92">
-        <v>0</v>
-      </c>
+      <c r="H98" s="66"/>
       <c r="I98" s="31" t="s">
         <v>21</v>
       </c>
@@ -6613,19 +6402,15 @@
       <c r="A99" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="75"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="31"/>
-      <c r="D99" s="75"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="31"/>
-      <c r="F99" s="75">
-        <v>0</v>
-      </c>
+      <c r="F99" s="52"/>
       <c r="G99" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="92">
-        <v>0</v>
-      </c>
+      <c r="H99" s="66"/>
       <c r="I99" s="31" t="s">
         <v>21</v>
       </c>
@@ -6662,19 +6447,15 @@
       <c r="A100" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="75"/>
+      <c r="B100" s="52"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="75"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="31"/>
-      <c r="F100" s="75">
-        <v>0</v>
-      </c>
+      <c r="F100" s="52"/>
       <c r="G100" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="92">
-        <v>0</v>
-      </c>
+      <c r="H100" s="66"/>
       <c r="I100" s="31" t="s">
         <v>21</v>
       </c>
@@ -6711,19 +6492,15 @@
       <c r="A101" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="75"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="75"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="31"/>
-      <c r="F101" s="75">
-        <v>0</v>
-      </c>
+      <c r="F101" s="52"/>
       <c r="G101" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H101" s="92">
-        <v>0</v>
-      </c>
+      <c r="H101" s="66"/>
       <c r="I101" s="31" t="s">
         <v>21</v>
       </c>
@@ -6760,19 +6537,15 @@
       <c r="A102" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="75"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="75"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="31"/>
-      <c r="F102" s="75">
-        <v>0</v>
-      </c>
+      <c r="F102" s="52"/>
       <c r="G102" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="92">
-        <v>0</v>
-      </c>
+      <c r="H102" s="66"/>
       <c r="I102" s="31" t="s">
         <v>21</v>
       </c>
@@ -6809,19 +6582,15 @@
       <c r="A103" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B103" s="75"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="75"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="31"/>
-      <c r="F103" s="75">
-        <v>0</v>
-      </c>
+      <c r="F103" s="52"/>
       <c r="G103" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="92">
-        <v>0</v>
-      </c>
+      <c r="H103" s="66"/>
       <c r="I103" s="31" t="s">
         <v>21</v>
       </c>
@@ -6858,19 +6627,15 @@
       <c r="A104" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="75"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="31"/>
-      <c r="D104" s="75"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="31"/>
-      <c r="F104" s="75">
-        <v>0</v>
-      </c>
+      <c r="F104" s="52"/>
       <c r="G104" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="92">
-        <v>0</v>
-      </c>
+      <c r="H104" s="66"/>
       <c r="I104" s="31" t="s">
         <v>21</v>
       </c>
@@ -6907,19 +6672,15 @@
       <c r="A105" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="75"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="31"/>
-      <c r="D105" s="75"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="31"/>
-      <c r="F105" s="75">
-        <v>0</v>
-      </c>
+      <c r="F105" s="52"/>
       <c r="G105" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H105" s="92">
-        <v>0</v>
-      </c>
+      <c r="H105" s="66"/>
       <c r="I105" s="31" t="s">
         <v>21</v>
       </c>
@@ -6956,19 +6717,15 @@
       <c r="A106" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="75"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="31"/>
-      <c r="D106" s="75"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="31"/>
-      <c r="F106" s="75">
-        <v>0</v>
-      </c>
+      <c r="F106" s="52"/>
       <c r="G106" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H106" s="92">
-        <v>0</v>
-      </c>
+      <c r="H106" s="66"/>
       <c r="I106" s="31" t="s">
         <v>21</v>
       </c>
@@ -7005,19 +6762,15 @@
       <c r="A107" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="75"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="75"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="31"/>
-      <c r="F107" s="75">
-        <v>0</v>
-      </c>
+      <c r="F107" s="52"/>
       <c r="G107" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="92">
-        <v>0</v>
-      </c>
+      <c r="H107" s="66"/>
       <c r="I107" s="31" t="s">
         <v>21</v>
       </c>
@@ -7054,19 +6807,15 @@
       <c r="A108" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="75"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="75"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="31"/>
-      <c r="F108" s="75">
-        <v>0</v>
-      </c>
+      <c r="F108" s="52"/>
       <c r="G108" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="92">
-        <v>0</v>
-      </c>
+      <c r="H108" s="66"/>
       <c r="I108" s="31" t="s">
         <v>21</v>
       </c>
@@ -7103,19 +6852,15 @@
       <c r="A109" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="75"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="31"/>
-      <c r="D109" s="75"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="31"/>
-      <c r="F109" s="75">
-        <v>0</v>
-      </c>
+      <c r="F109" s="52"/>
       <c r="G109" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="92">
-        <v>0</v>
-      </c>
+      <c r="H109" s="66"/>
       <c r="I109" s="31" t="s">
         <v>21</v>
       </c>
@@ -7152,19 +6897,15 @@
       <c r="A110" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="75"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="31"/>
-      <c r="D110" s="75"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="31"/>
-      <c r="F110" s="75">
-        <v>0</v>
-      </c>
+      <c r="F110" s="52"/>
       <c r="G110" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H110" s="92">
-        <v>0</v>
-      </c>
+      <c r="H110" s="66"/>
       <c r="I110" s="31" t="s">
         <v>21</v>
       </c>
@@ -7201,19 +6942,15 @@
       <c r="A111" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="75"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="31"/>
-      <c r="D111" s="75"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="31"/>
-      <c r="F111" s="75">
-        <v>0</v>
-      </c>
+      <c r="F111" s="52"/>
       <c r="G111" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="92">
-        <v>0</v>
-      </c>
+      <c r="H111" s="66"/>
       <c r="I111" s="31" t="s">
         <v>21</v>
       </c>
@@ -7250,19 +6987,15 @@
       <c r="A112" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="75"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="31"/>
-      <c r="D112" s="75"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="31"/>
-      <c r="F112" s="75">
-        <v>0</v>
-      </c>
+      <c r="F112" s="52"/>
       <c r="G112" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H112" s="92">
-        <v>0</v>
-      </c>
+      <c r="H112" s="66"/>
       <c r="I112" s="31" t="s">
         <v>21</v>
       </c>
@@ -7299,19 +7032,15 @@
       <c r="A113" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="75"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="31"/>
-      <c r="D113" s="75"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="31"/>
-      <c r="F113" s="75">
-        <v>0</v>
-      </c>
+      <c r="F113" s="52"/>
       <c r="G113" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H113" s="92">
-        <v>0</v>
-      </c>
+      <c r="H113" s="66"/>
       <c r="I113" s="31" t="s">
         <v>21</v>
       </c>
@@ -7348,19 +7077,15 @@
       <c r="A114" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="75"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="31"/>
-      <c r="D114" s="75"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="31"/>
-      <c r="F114" s="75">
-        <v>0</v>
-      </c>
+      <c r="F114" s="52"/>
       <c r="G114" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="92">
-        <v>0</v>
-      </c>
+      <c r="H114" s="66"/>
       <c r="I114" s="31" t="s">
         <v>21</v>
       </c>
@@ -7397,19 +7122,15 @@
       <c r="A115" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="75"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="31"/>
-      <c r="D115" s="75"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="31"/>
-      <c r="F115" s="75">
-        <v>0</v>
-      </c>
+      <c r="F115" s="52"/>
       <c r="G115" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H115" s="92">
-        <v>0</v>
-      </c>
+      <c r="H115" s="66"/>
       <c r="I115" s="31" t="s">
         <v>21</v>
       </c>
@@ -7446,19 +7167,15 @@
       <c r="A116" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B116" s="75"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="31"/>
-      <c r="D116" s="75"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="31"/>
-      <c r="F116" s="75">
-        <v>0</v>
-      </c>
+      <c r="F116" s="52"/>
       <c r="G116" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="92">
-        <v>0</v>
-      </c>
+      <c r="H116" s="66"/>
       <c r="I116" s="31" t="s">
         <v>21</v>
       </c>
@@ -7491,19 +7208,15 @@
       <c r="A117" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="75"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="31"/>
-      <c r="D117" s="75"/>
+      <c r="D117" s="52"/>
       <c r="E117" s="31"/>
-      <c r="F117" s="75">
-        <v>0</v>
-      </c>
+      <c r="F117" s="52"/>
       <c r="G117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H117" s="92">
-        <v>0</v>
-      </c>
+      <c r="H117" s="66"/>
       <c r="I117" s="31" t="s">
         <v>21</v>
       </c>
@@ -7536,23 +7249,17 @@
       <c r="A118" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B118" s="75"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="31"/>
-      <c r="D118" s="75">
-        <v>0</v>
-      </c>
+      <c r="D118" s="52"/>
       <c r="E118" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="75">
-        <v>0</v>
-      </c>
+      <c r="F118" s="52"/>
       <c r="G118" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H118" s="92">
-        <v>0</v>
-      </c>
+      <c r="H118" s="66"/>
       <c r="I118" s="31" t="s">
         <v>21</v>
       </c>
@@ -7589,23 +7296,17 @@
       <c r="A119" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B119" s="75"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="31"/>
-      <c r="D119" s="75">
-        <v>0</v>
-      </c>
+      <c r="D119" s="52"/>
       <c r="E119" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F119" s="75">
-        <v>0</v>
-      </c>
+      <c r="F119" s="52"/>
       <c r="G119" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="92">
-        <v>0</v>
-      </c>
+      <c r="H119" s="66"/>
       <c r="I119" s="31" t="s">
         <v>21</v>
       </c>
@@ -7642,23 +7343,17 @@
       <c r="A120" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B120" s="75"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="31"/>
-      <c r="D120" s="75">
-        <v>0</v>
-      </c>
+      <c r="D120" s="52"/>
       <c r="E120" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="75">
-        <v>0</v>
-      </c>
+      <c r="F120" s="52"/>
       <c r="G120" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="92">
-        <v>0</v>
-      </c>
+      <c r="H120" s="66"/>
       <c r="I120" s="31" t="s">
         <v>21</v>
       </c>
@@ -7695,23 +7390,17 @@
       <c r="A121" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B121" s="75"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="31"/>
-      <c r="D121" s="75">
-        <v>0</v>
-      </c>
+      <c r="D121" s="52"/>
       <c r="E121" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F121" s="75">
-        <v>0</v>
-      </c>
+      <c r="F121" s="52"/>
       <c r="G121" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H121" s="92">
-        <v>0</v>
-      </c>
+      <c r="H121" s="66"/>
       <c r="I121" s="31" t="s">
         <v>21</v>
       </c>
@@ -7748,23 +7437,17 @@
       <c r="A122" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B122" s="75"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="31"/>
-      <c r="D122" s="75">
-        <v>0</v>
-      </c>
+      <c r="D122" s="52"/>
       <c r="E122" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F122" s="75">
-        <v>0</v>
-      </c>
+      <c r="F122" s="52"/>
       <c r="G122" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H122" s="92">
-        <v>0</v>
-      </c>
+      <c r="H122" s="66"/>
       <c r="I122" s="31" t="s">
         <v>21</v>
       </c>
@@ -7801,23 +7484,17 @@
       <c r="A123" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B123" s="75"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="31"/>
-      <c r="D123" s="75">
-        <v>0</v>
-      </c>
+      <c r="D123" s="52"/>
       <c r="E123" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="75">
-        <v>0</v>
-      </c>
+      <c r="F123" s="52"/>
       <c r="G123" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H123" s="92">
-        <v>0</v>
-      </c>
+      <c r="H123" s="66"/>
       <c r="I123" s="31" t="s">
         <v>21</v>
       </c>
@@ -7854,23 +7531,17 @@
       <c r="A124" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B124" s="75"/>
+      <c r="B124" s="52"/>
       <c r="C124" s="31"/>
-      <c r="D124" s="75">
-        <v>0</v>
-      </c>
+      <c r="D124" s="52"/>
       <c r="E124" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="75">
-        <v>0</v>
-      </c>
+      <c r="F124" s="52"/>
       <c r="G124" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="92">
-        <v>0</v>
-      </c>
+      <c r="H124" s="66"/>
       <c r="I124" s="31" t="s">
         <v>21</v>
       </c>
@@ -7907,23 +7578,17 @@
       <c r="A125" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B125" s="75"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="31"/>
-      <c r="D125" s="75">
-        <v>0</v>
-      </c>
+      <c r="D125" s="52"/>
       <c r="E125" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F125" s="75">
-        <v>0</v>
-      </c>
+      <c r="F125" s="52"/>
       <c r="G125" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H125" s="92">
-        <v>0</v>
-      </c>
+      <c r="H125" s="66"/>
       <c r="I125" s="31" t="s">
         <v>21</v>
       </c>
@@ -7960,23 +7625,17 @@
       <c r="A126" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B126" s="75"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="31"/>
-      <c r="D126" s="75">
-        <v>0</v>
-      </c>
+      <c r="D126" s="52"/>
       <c r="E126" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F126" s="75">
-        <v>0</v>
-      </c>
+      <c r="F126" s="52"/>
       <c r="G126" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H126" s="92">
-        <v>0</v>
-      </c>
+      <c r="H126" s="66"/>
       <c r="I126" s="31" t="s">
         <v>21</v>
       </c>
@@ -8013,23 +7672,17 @@
       <c r="A127" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="75"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="31"/>
-      <c r="D127" s="75">
-        <v>0</v>
-      </c>
+      <c r="D127" s="52"/>
       <c r="E127" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F127" s="75">
-        <v>0</v>
-      </c>
+      <c r="F127" s="52"/>
       <c r="G127" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H127" s="92">
-        <v>0</v>
-      </c>
+      <c r="H127" s="66"/>
       <c r="I127" s="31" t="s">
         <v>21</v>
       </c>
@@ -8066,23 +7719,17 @@
       <c r="A128" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B128" s="75"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="31"/>
-      <c r="D128" s="75">
-        <v>0</v>
-      </c>
+      <c r="D128" s="52"/>
       <c r="E128" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F128" s="75">
-        <v>0</v>
-      </c>
+      <c r="F128" s="52"/>
       <c r="G128" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H128" s="92">
-        <v>0</v>
-      </c>
+      <c r="H128" s="66"/>
       <c r="I128" s="31" t="s">
         <v>21</v>
       </c>
@@ -8119,23 +7766,17 @@
       <c r="A129" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B129" s="75"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="31"/>
-      <c r="D129" s="75">
-        <v>0</v>
-      </c>
+      <c r="D129" s="52"/>
       <c r="E129" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F129" s="75">
-        <v>0</v>
-      </c>
+      <c r="F129" s="52"/>
       <c r="G129" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="92">
-        <v>0</v>
-      </c>
+      <c r="H129" s="66"/>
       <c r="I129" s="31" t="s">
         <v>21</v>
       </c>
@@ -8175,17 +7816,15 @@
       <c r="A130" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="76"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="46"/>
-      <c r="D130" s="75"/>
+      <c r="D130" s="52"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="75"/>
+      <c r="F130" s="52"/>
       <c r="G130" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="92">
-        <v>0</v>
-      </c>
+      <c r="H130" s="66"/>
       <c r="I130" s="31" t="s">
         <v>21</v>
       </c>
@@ -8219,22 +7858,20 @@
       </c>
     </row>
     <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B131" s="77"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="85"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="60"/>
       <c r="E131" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F131" s="75"/>
+      <c r="F131" s="52"/>
       <c r="G131" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="92">
-        <v>2</v>
-      </c>
+      <c r="H131" s="66"/>
       <c r="I131" s="31" t="s">
         <v>21</v>
       </c>
@@ -8244,7 +7881,7 @@
       </c>
       <c r="L131" s="23">
         <f>((D131+F131)-2*H131)*H131*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M131" s="31" t="s">
         <v>23</v>
@@ -8261,28 +7898,24 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q131">
-        <v>185.66</v>
-      </c>
+      <c r="Q131"/>
       <c r="R131" s="2"/>
     </row>
     <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B132" s="77"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="75"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="52"/>
       <c r="E132" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="75"/>
+      <c r="F132" s="52"/>
       <c r="G132" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="92">
-        <v>2</v>
-      </c>
+      <c r="H132" s="66"/>
       <c r="I132" s="31" t="s">
         <v>21</v>
       </c>
@@ -8292,7 +7925,7 @@
       </c>
       <c r="L132" s="23">
         <f>((C132+F132)-2*H132)*H132*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M132" s="31" t="s">
         <v>23</v>
@@ -8309,28 +7942,24 @@
         <f t="shared" ref="P132:P163" si="25">O132*6*L132</f>
         <v>0</v>
       </c>
-      <c r="Q132">
-        <v>282.17</v>
-      </c>
+      <c r="Q132"/>
       <c r="R132" s="2"/>
     </row>
     <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="75"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="52"/>
       <c r="E133" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F133" s="75"/>
+      <c r="F133" s="52"/>
       <c r="G133" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="92">
-        <v>0</v>
-      </c>
+      <c r="H133" s="66"/>
       <c r="I133" s="31" t="s">
         <v>21</v>
       </c>
@@ -8360,22 +7989,20 @@
       <c r="R133" s="2"/>
     </row>
     <row r="134" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B134" s="77"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="85"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="60"/>
       <c r="E134" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F134" s="75"/>
+      <c r="F134" s="52"/>
       <c r="G134" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="92">
-        <v>2</v>
-      </c>
+      <c r="H134" s="66"/>
       <c r="I134" s="31" t="s">
         <v>21</v>
       </c>
@@ -8385,7 +8012,7 @@
       </c>
       <c r="L134" s="23">
         <f>((D134+F134)-2*H134)*H134*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M134" s="31" t="s">
         <v>23</v>
@@ -8405,22 +8032,20 @@
       <c r="R134" s="2"/>
     </row>
     <row r="135" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B135" s="77"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="75"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="52"/>
       <c r="E135" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F135" s="75"/>
+      <c r="F135" s="52"/>
       <c r="G135" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="92">
-        <v>2</v>
-      </c>
+      <c r="H135" s="66"/>
       <c r="I135" s="31" t="s">
         <v>21</v>
       </c>
@@ -8430,7 +8055,7 @@
       </c>
       <c r="L135" s="23">
         <f>((C135+F135)-2*H135)*H135*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M135" s="31" t="s">
         <v>23</v>
@@ -8450,22 +8075,20 @@
       <c r="R135" s="2"/>
     </row>
     <row r="136" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B136" s="77"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="75"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="52"/>
       <c r="E136" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F136" s="75"/>
+      <c r="F136" s="52"/>
       <c r="G136" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="92">
-        <v>0</v>
-      </c>
+      <c r="H136" s="66"/>
       <c r="I136" s="31" t="s">
         <v>21</v>
       </c>
@@ -8495,22 +8118,20 @@
       <c r="R136" s="2"/>
     </row>
     <row r="137" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="77"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="85"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="60"/>
       <c r="E137" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F137" s="75"/>
+      <c r="F137" s="52"/>
       <c r="G137" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="92">
-        <v>2</v>
-      </c>
+      <c r="H137" s="66"/>
       <c r="I137" s="31" t="s">
         <v>21</v>
       </c>
@@ -8520,7 +8141,7 @@
       </c>
       <c r="L137" s="23">
         <f>((D137+F137)-2*H137)*H137*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M137" s="31" t="s">
         <v>23</v>
@@ -8540,22 +8161,20 @@
       <c r="R137" s="2"/>
     </row>
     <row r="138" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B138" s="77"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="75"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="75"/>
+      <c r="D138" s="52"/>
       <c r="E138" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="75"/>
+      <c r="F138" s="52"/>
       <c r="G138" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="92">
-        <v>2</v>
-      </c>
+      <c r="H138" s="66"/>
       <c r="I138" s="31" t="s">
         <v>21</v>
       </c>
@@ -8565,7 +8184,7 @@
       </c>
       <c r="L138" s="23">
         <f>((C138+F138)-2*H138)*H138*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M138" s="31" t="s">
         <v>23</v>
@@ -8585,22 +8204,20 @@
       <c r="R138" s="2"/>
     </row>
     <row r="139" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B139" s="77"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="75"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="75"/>
+      <c r="D139" s="52"/>
       <c r="E139" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F139" s="75"/>
+      <c r="F139" s="52"/>
       <c r="G139" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H139" s="92">
-        <v>0</v>
-      </c>
+      <c r="H139" s="66"/>
       <c r="I139" s="31" t="s">
         <v>21</v>
       </c>
@@ -8630,22 +8247,20 @@
       <c r="R139" s="2"/>
     </row>
     <row r="140" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="77"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="85"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="60"/>
       <c r="E140" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F140" s="75"/>
+      <c r="F140" s="52"/>
       <c r="G140" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="92">
-        <v>2</v>
-      </c>
+      <c r="H140" s="66"/>
       <c r="I140" s="31" t="s">
         <v>21</v>
       </c>
@@ -8655,7 +8270,7 @@
       </c>
       <c r="L140" s="23">
         <f>((D140+F140)-2*H140)*H140*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M140" s="31" t="s">
         <v>23</v>
@@ -8682,22 +8297,20 @@
       </c>
     </row>
     <row r="141" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B141" s="77"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="75"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="52"/>
       <c r="E141" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F141" s="75"/>
+      <c r="F141" s="52"/>
       <c r="G141" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H141" s="92">
-        <v>2</v>
-      </c>
+      <c r="H141" s="66"/>
       <c r="I141" s="31" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8320,7 @@
       </c>
       <c r="L141" s="23">
         <f>((C141+F141)-2*H141)*H141*0.00785</f>
-        <v>-6.2799999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M141" s="31" t="s">
         <v>23</v>
@@ -8731,22 +8344,20 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B142" s="77"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="75"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="52"/>
       <c r="E142" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="75"/>
+      <c r="F142" s="52"/>
       <c r="G142" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H142" s="92">
-        <v>0</v>
-      </c>
+      <c r="H142" s="66"/>
       <c r="I142" s="31" t="s">
         <v>21</v>
       </c>
@@ -8783,25 +8394,23 @@
       <c r="A143" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="75"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="31">
         <v>2</v>
       </c>
-      <c r="D143" s="75" t="s">
+      <c r="D143" s="52" t="s">
         <v>44</v>
       </c>
       <c r="E143" s="29">
         <v>0</v>
       </c>
-      <c r="F143" s="75" t="s">
+      <c r="F143" s="52" t="s">
         <v>45</v>
       </c>
       <c r="G143" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H143" s="92">
-        <v>0</v>
-      </c>
+      <c r="H143" s="66"/>
       <c r="I143" s="31" t="s">
         <v>21</v>
       </c>
@@ -8838,25 +8447,23 @@
       <c r="A144" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="75"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="31">
         <v>1</v>
       </c>
-      <c r="D144" s="75" t="s">
+      <c r="D144" s="52" t="s">
         <v>44</v>
       </c>
       <c r="E144" s="29">
         <v>0</v>
       </c>
-      <c r="F144" s="75" t="s">
+      <c r="F144" s="52" t="s">
         <v>45</v>
       </c>
       <c r="G144" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H144" s="92">
-        <v>0</v>
-      </c>
+      <c r="H144" s="66"/>
       <c r="I144" s="31" t="s">
         <v>21</v>
       </c>
@@ -8896,25 +8503,23 @@
       <c r="A145" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B145" s="75"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="31">
         <v>1</v>
       </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="52" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="29">
         <v>0.5</v>
       </c>
-      <c r="F145" s="75" t="s">
+      <c r="F145" s="52" t="s">
         <v>45</v>
       </c>
       <c r="G145" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H145" s="92">
-        <v>0</v>
-      </c>
+      <c r="H145" s="66"/>
       <c r="I145" s="31" t="s">
         <v>21</v>
       </c>
@@ -8954,13 +8559,13 @@
       <c r="A146" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B146" s="75"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="31"/>
-      <c r="D146" s="75"/>
+      <c r="D146" s="52"/>
       <c r="E146" s="31"/>
-      <c r="F146" s="75"/>
+      <c r="F146" s="52"/>
       <c r="G146" s="31"/>
-      <c r="H146" s="75"/>
+      <c r="H146" s="52"/>
       <c r="I146" s="31" t="s">
         <v>49</v>
       </c>
@@ -8999,13 +8604,13 @@
       <c r="A147" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B147" s="75"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="31"/>
-      <c r="D147" s="75"/>
+      <c r="D147" s="52"/>
       <c r="E147" s="31"/>
-      <c r="F147" s="75"/>
+      <c r="F147" s="52"/>
       <c r="G147" s="31"/>
-      <c r="H147" s="75"/>
+      <c r="H147" s="52"/>
       <c r="I147" s="31" t="s">
         <v>49</v>
       </c>
@@ -9041,13 +8646,13 @@
       <c r="A148" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="75"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="31"/>
-      <c r="D148" s="75"/>
+      <c r="D148" s="52"/>
       <c r="E148" s="31"/>
-      <c r="F148" s="75"/>
+      <c r="F148" s="52"/>
       <c r="G148" s="31"/>
-      <c r="H148" s="75"/>
+      <c r="H148" s="52"/>
       <c r="I148" s="31" t="s">
         <v>49</v>
       </c>
@@ -9083,13 +8688,13 @@
       <c r="A149" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="75"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="31"/>
-      <c r="D149" s="75"/>
+      <c r="D149" s="52"/>
       <c r="E149" s="31"/>
-      <c r="F149" s="75"/>
+      <c r="F149" s="52"/>
       <c r="G149" s="31"/>
-      <c r="H149" s="75"/>
+      <c r="H149" s="52"/>
       <c r="I149" s="31" t="s">
         <v>49</v>
       </c>
@@ -9125,13 +8730,13 @@
       <c r="A150" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B150" s="75"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="31"/>
-      <c r="D150" s="75"/>
+      <c r="D150" s="52"/>
       <c r="E150" s="31"/>
-      <c r="F150" s="75"/>
+      <c r="F150" s="52"/>
       <c r="G150" s="31"/>
-      <c r="H150" s="75"/>
+      <c r="H150" s="52"/>
       <c r="I150" s="31" t="s">
         <v>49</v>
       </c>
@@ -9167,13 +8772,13 @@
       <c r="A151" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B151" s="75"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="31"/>
-      <c r="D151" s="75"/>
+      <c r="D151" s="52"/>
       <c r="E151" s="31"/>
-      <c r="F151" s="75"/>
+      <c r="F151" s="52"/>
       <c r="G151" s="31"/>
-      <c r="H151" s="75"/>
+      <c r="H151" s="52"/>
       <c r="I151" s="31" t="s">
         <v>49</v>
       </c>
@@ -9209,13 +8814,13 @@
       <c r="A152" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B152" s="75"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="31"/>
-      <c r="D152" s="75"/>
+      <c r="D152" s="52"/>
       <c r="E152" s="31"/>
-      <c r="F152" s="75"/>
+      <c r="F152" s="52"/>
       <c r="G152" s="31"/>
-      <c r="H152" s="75"/>
+      <c r="H152" s="52"/>
       <c r="I152" s="31" t="s">
         <v>49</v>
       </c>
@@ -9251,13 +8856,13 @@
       <c r="A153" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B153" s="75"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="31"/>
-      <c r="D153" s="75"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="75"/>
+      <c r="F153" s="52"/>
       <c r="G153" s="31"/>
-      <c r="H153" s="75"/>
+      <c r="H153" s="52"/>
       <c r="I153" s="31" t="s">
         <v>49</v>
       </c>
@@ -9293,13 +8898,13 @@
       <c r="A154" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B154" s="75"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="31"/>
-      <c r="D154" s="75"/>
+      <c r="D154" s="52"/>
       <c r="E154" s="31"/>
-      <c r="F154" s="75"/>
+      <c r="F154" s="52"/>
       <c r="G154" s="31"/>
-      <c r="H154" s="75"/>
+      <c r="H154" s="52"/>
       <c r="I154" s="31" t="s">
         <v>49</v>
       </c>
@@ -9331,13 +8936,13 @@
       <c r="A155" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B155" s="75"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="31"/>
-      <c r="D155" s="75"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="31"/>
-      <c r="F155" s="75"/>
+      <c r="F155" s="52"/>
       <c r="G155" s="31"/>
-      <c r="H155" s="75"/>
+      <c r="H155" s="52"/>
       <c r="I155" s="31" t="s">
         <v>49</v>
       </c>
@@ -9369,13 +8974,13 @@
       <c r="A156" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B156" s="75"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="31"/>
-      <c r="D156" s="75"/>
+      <c r="D156" s="52"/>
       <c r="E156" s="31"/>
-      <c r="F156" s="75"/>
+      <c r="F156" s="52"/>
       <c r="G156" s="31"/>
-      <c r="H156" s="75"/>
+      <c r="H156" s="52"/>
       <c r="I156" s="31" t="s">
         <v>49</v>
       </c>
@@ -9407,13 +9012,13 @@
       <c r="A157" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B157" s="75"/>
+      <c r="B157" s="52"/>
       <c r="C157" s="31"/>
-      <c r="D157" s="75"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="31"/>
-      <c r="F157" s="75"/>
+      <c r="F157" s="52"/>
       <c r="G157" s="31"/>
-      <c r="H157" s="75"/>
+      <c r="H157" s="52"/>
       <c r="I157" s="31" t="s">
         <v>49</v>
       </c>
@@ -9445,13 +9050,13 @@
       <c r="A158" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B158" s="75"/>
+      <c r="B158" s="52"/>
       <c r="C158" s="31"/>
-      <c r="D158" s="75"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="31"/>
-      <c r="F158" s="75"/>
+      <c r="F158" s="52"/>
       <c r="G158" s="31"/>
-      <c r="H158" s="75"/>
+      <c r="H158" s="52"/>
       <c r="I158" s="31" t="s">
         <v>49</v>
       </c>
@@ -9483,13 +9088,13 @@
       <c r="A159" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B159" s="75"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="31"/>
-      <c r="D159" s="75"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="31"/>
-      <c r="F159" s="75"/>
+      <c r="F159" s="52"/>
       <c r="G159" s="31"/>
-      <c r="H159" s="75"/>
+      <c r="H159" s="52"/>
       <c r="I159" s="31" t="s">
         <v>49</v>
       </c>
@@ -9521,13 +9126,13 @@
       <c r="A160" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B160" s="75"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="31"/>
-      <c r="D160" s="75"/>
+      <c r="D160" s="52"/>
       <c r="E160" s="31"/>
-      <c r="F160" s="75"/>
+      <c r="F160" s="52"/>
       <c r="G160" s="31"/>
-      <c r="H160" s="75"/>
+      <c r="H160" s="52"/>
       <c r="I160" s="31" t="s">
         <v>49</v>
       </c>
@@ -9559,13 +9164,13 @@
       <c r="A161" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B161" s="75"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="31"/>
-      <c r="D161" s="75"/>
+      <c r="D161" s="52"/>
       <c r="E161" s="31"/>
-      <c r="F161" s="75"/>
+      <c r="F161" s="52"/>
       <c r="G161" s="31"/>
-      <c r="H161" s="75"/>
+      <c r="H161" s="52"/>
       <c r="I161" s="31" t="s">
         <v>49</v>
       </c>
@@ -9597,13 +9202,13 @@
       <c r="A162" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B162" s="75"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="31"/>
-      <c r="D162" s="75"/>
+      <c r="D162" s="52"/>
       <c r="E162" s="31"/>
-      <c r="F162" s="75"/>
+      <c r="F162" s="52"/>
       <c r="G162" s="31"/>
-      <c r="H162" s="75"/>
+      <c r="H162" s="52"/>
       <c r="I162" s="31" t="s">
         <v>49</v>
       </c>
@@ -9635,13 +9240,13 @@
       <c r="A163" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B163" s="75"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="31"/>
-      <c r="D163" s="75"/>
+      <c r="D163" s="52"/>
       <c r="E163" s="31"/>
-      <c r="F163" s="75"/>
+      <c r="F163" s="52"/>
       <c r="G163" s="31"/>
-      <c r="H163" s="75"/>
+      <c r="H163" s="52"/>
       <c r="I163" s="31" t="s">
         <v>49</v>
       </c>
@@ -9673,13 +9278,13 @@
       <c r="A164" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B164" s="75"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="31"/>
-      <c r="D164" s="75"/>
+      <c r="D164" s="52"/>
       <c r="E164" s="31"/>
-      <c r="F164" s="75"/>
+      <c r="F164" s="52"/>
       <c r="G164" s="31"/>
-      <c r="H164" s="75"/>
+      <c r="H164" s="52"/>
       <c r="I164" s="31" t="s">
         <v>49</v>
       </c>
@@ -9711,13 +9316,13 @@
       <c r="A165" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B165" s="75"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="31"/>
-      <c r="D165" s="75"/>
+      <c r="D165" s="52"/>
       <c r="E165" s="31"/>
-      <c r="F165" s="75"/>
+      <c r="F165" s="52"/>
       <c r="G165" s="31"/>
-      <c r="H165" s="75"/>
+      <c r="H165" s="52"/>
       <c r="I165" s="31" t="s">
         <v>49</v>
       </c>
@@ -9749,13 +9354,13 @@
       <c r="A166" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B166" s="75"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="31"/>
-      <c r="D166" s="75"/>
+      <c r="D166" s="52"/>
       <c r="E166" s="31"/>
-      <c r="F166" s="75"/>
+      <c r="F166" s="52"/>
       <c r="G166" s="31"/>
-      <c r="H166" s="75"/>
+      <c r="H166" s="52"/>
       <c r="I166" s="31" t="s">
         <v>49</v>
       </c>
@@ -9787,13 +9392,13 @@
       <c r="A167" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B167" s="75"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="31"/>
-      <c r="D167" s="75"/>
+      <c r="D167" s="52"/>
       <c r="E167" s="31"/>
-      <c r="F167" s="75"/>
+      <c r="F167" s="52"/>
       <c r="G167" s="31"/>
-      <c r="H167" s="75"/>
+      <c r="H167" s="52"/>
       <c r="I167" s="31" t="s">
         <v>49</v>
       </c>
@@ -9825,13 +9430,13 @@
       <c r="A168" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="75"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="31"/>
-      <c r="D168" s="75"/>
+      <c r="D168" s="52"/>
       <c r="E168" s="31"/>
-      <c r="F168" s="75"/>
+      <c r="F168" s="52"/>
       <c r="G168" s="31"/>
-      <c r="H168" s="75"/>
+      <c r="H168" s="52"/>
       <c r="I168" s="31" t="s">
         <v>49</v>
       </c>
@@ -9863,13 +9468,13 @@
       <c r="A169" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="75"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="31"/>
-      <c r="D169" s="75"/>
+      <c r="D169" s="52"/>
       <c r="E169" s="31"/>
-      <c r="F169" s="75"/>
+      <c r="F169" s="52"/>
       <c r="G169" s="31"/>
-      <c r="H169" s="75"/>
+      <c r="H169" s="52"/>
       <c r="I169" s="31" t="s">
         <v>49</v>
       </c>
@@ -9901,13 +9506,13 @@
       <c r="A170" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="75"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="31"/>
-      <c r="D170" s="75"/>
+      <c r="D170" s="52"/>
       <c r="E170" s="31"/>
-      <c r="F170" s="75"/>
+      <c r="F170" s="52"/>
       <c r="G170" s="31"/>
-      <c r="H170" s="75"/>
+      <c r="H170" s="52"/>
       <c r="I170" s="31" t="s">
         <v>49</v>
       </c>
@@ -9939,13 +9544,13 @@
       <c r="A171" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="75"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="31"/>
-      <c r="D171" s="75"/>
+      <c r="D171" s="52"/>
       <c r="E171" s="31"/>
-      <c r="F171" s="75"/>
+      <c r="F171" s="52"/>
       <c r="G171" s="31"/>
-      <c r="H171" s="75"/>
+      <c r="H171" s="52"/>
       <c r="I171" s="31" t="s">
         <v>49</v>
       </c>
@@ -9977,13 +9582,13 @@
       <c r="A172" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B172" s="75"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="31"/>
-      <c r="D172" s="75"/>
+      <c r="D172" s="52"/>
       <c r="E172" s="31"/>
-      <c r="F172" s="75"/>
+      <c r="F172" s="52"/>
       <c r="G172" s="31"/>
-      <c r="H172" s="75"/>
+      <c r="H172" s="52"/>
       <c r="I172" s="31" t="s">
         <v>49</v>
       </c>
@@ -10015,13 +9620,13 @@
       <c r="A173" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B173" s="75"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="31"/>
-      <c r="D173" s="75"/>
+      <c r="D173" s="52"/>
       <c r="E173" s="31"/>
-      <c r="F173" s="75"/>
+      <c r="F173" s="52"/>
       <c r="G173" s="31"/>
-      <c r="H173" s="75"/>
+      <c r="H173" s="52"/>
       <c r="I173" s="31" t="s">
         <v>49</v>
       </c>
@@ -10053,13 +9658,13 @@
       <c r="A174" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B174" s="75"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="31"/>
-      <c r="D174" s="75"/>
+      <c r="D174" s="52"/>
       <c r="E174" s="31"/>
-      <c r="F174" s="75"/>
+      <c r="F174" s="52"/>
       <c r="G174" s="31"/>
-      <c r="H174" s="75"/>
+      <c r="H174" s="52"/>
       <c r="I174" s="31" t="s">
         <v>49</v>
       </c>
@@ -10091,13 +9696,13 @@
       <c r="A175" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B175" s="75"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="31"/>
-      <c r="D175" s="75"/>
+      <c r="D175" s="52"/>
       <c r="E175" s="31"/>
-      <c r="F175" s="75"/>
+      <c r="F175" s="52"/>
       <c r="G175" s="31"/>
-      <c r="H175" s="75"/>
+      <c r="H175" s="52"/>
       <c r="I175" s="31" t="s">
         <v>21</v>
       </c>
@@ -10129,13 +9734,13 @@
       <c r="A176" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="75"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="31"/>
-      <c r="D176" s="75"/>
+      <c r="D176" s="52"/>
       <c r="E176" s="31"/>
-      <c r="F176" s="75"/>
+      <c r="F176" s="52"/>
       <c r="G176" s="31"/>
-      <c r="H176" s="75"/>
+      <c r="H176" s="52"/>
       <c r="I176" s="31" t="s">
         <v>21</v>
       </c>
@@ -10167,13 +9772,13 @@
       <c r="A177" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B177" s="75"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="31"/>
-      <c r="D177" s="75"/>
+      <c r="D177" s="52"/>
       <c r="E177" s="31"/>
-      <c r="F177" s="75"/>
+      <c r="F177" s="52"/>
       <c r="G177" s="31"/>
-      <c r="H177" s="75"/>
+      <c r="H177" s="52"/>
       <c r="I177" s="31" t="s">
         <v>21</v>
       </c>
@@ -10205,13 +9810,13 @@
       <c r="A178" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B178" s="75"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="31"/>
-      <c r="D178" s="75"/>
+      <c r="D178" s="52"/>
       <c r="E178" s="31"/>
-      <c r="F178" s="75"/>
+      <c r="F178" s="52"/>
       <c r="G178" s="31"/>
-      <c r="H178" s="75"/>
+      <c r="H178" s="52"/>
       <c r="I178" s="31" t="s">
         <v>21</v>
       </c>
@@ -10243,13 +9848,13 @@
       <c r="A179" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B179" s="75"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="31"/>
-      <c r="D179" s="75"/>
+      <c r="D179" s="52"/>
       <c r="E179" s="31"/>
-      <c r="F179" s="75"/>
+      <c r="F179" s="52"/>
       <c r="G179" s="31"/>
-      <c r="H179" s="75"/>
+      <c r="H179" s="52"/>
       <c r="I179" s="31" t="s">
         <v>21</v>
       </c>
@@ -10281,13 +9886,13 @@
       <c r="A180" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B180" s="75"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="31"/>
-      <c r="D180" s="75"/>
+      <c r="D180" s="52"/>
       <c r="E180" s="31"/>
-      <c r="F180" s="75"/>
+      <c r="F180" s="52"/>
       <c r="G180" s="31"/>
-      <c r="H180" s="75"/>
+      <c r="H180" s="52"/>
       <c r="I180" s="31" t="s">
         <v>21</v>
       </c>
@@ -10319,13 +9924,13 @@
       <c r="A181" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B181" s="75"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="31"/>
-      <c r="D181" s="75"/>
+      <c r="D181" s="52"/>
       <c r="E181" s="31"/>
-      <c r="F181" s="75"/>
+      <c r="F181" s="52"/>
       <c r="G181" s="31"/>
-      <c r="H181" s="75"/>
+      <c r="H181" s="52"/>
       <c r="I181" s="31" t="s">
         <v>21</v>
       </c>
@@ -10357,13 +9962,13 @@
       <c r="A182" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B182" s="75"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="31"/>
-      <c r="D182" s="75"/>
+      <c r="D182" s="52"/>
       <c r="E182" s="31"/>
-      <c r="F182" s="75"/>
+      <c r="F182" s="52"/>
       <c r="G182" s="31"/>
-      <c r="H182" s="75"/>
+      <c r="H182" s="52"/>
       <c r="I182" s="31" t="s">
         <v>21</v>
       </c>
@@ -10395,13 +10000,13 @@
       <c r="A183" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B183" s="75"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="31"/>
-      <c r="D183" s="75"/>
+      <c r="D183" s="52"/>
       <c r="E183" s="31"/>
-      <c r="F183" s="75"/>
+      <c r="F183" s="52"/>
       <c r="G183" s="31"/>
-      <c r="H183" s="75"/>
+      <c r="H183" s="52"/>
       <c r="I183" s="31" t="s">
         <v>21</v>
       </c>
@@ -10433,13 +10038,13 @@
       <c r="A184" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B184" s="75"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="31"/>
-      <c r="D184" s="75"/>
+      <c r="D184" s="52"/>
       <c r="E184" s="31"/>
-      <c r="F184" s="75"/>
+      <c r="F184" s="52"/>
       <c r="G184" s="31"/>
-      <c r="H184" s="75"/>
+      <c r="H184" s="52"/>
       <c r="I184" s="31" t="s">
         <v>21</v>
       </c>
@@ -10470,13 +10075,13 @@
       <c r="A185" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B185" s="75"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="31"/>
-      <c r="D185" s="75"/>
+      <c r="D185" s="52"/>
       <c r="E185" s="31"/>
-      <c r="F185" s="75"/>
+      <c r="F185" s="52"/>
       <c r="G185" s="31"/>
-      <c r="H185" s="75"/>
+      <c r="H185" s="52"/>
       <c r="I185" s="31" t="s">
         <v>21</v>
       </c>
@@ -10507,13 +10112,13 @@
       <c r="A186" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B186" s="75"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="31"/>
-      <c r="D186" s="75"/>
+      <c r="D186" s="52"/>
       <c r="E186" s="31"/>
-      <c r="F186" s="75"/>
+      <c r="F186" s="52"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="75"/>
+      <c r="H186" s="52"/>
       <c r="I186" s="31" t="s">
         <v>21</v>
       </c>
@@ -10544,13 +10149,13 @@
       <c r="A187" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B187" s="75"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="31"/>
-      <c r="D187" s="75"/>
+      <c r="D187" s="52"/>
       <c r="E187" s="31"/>
-      <c r="F187" s="75"/>
+      <c r="F187" s="52"/>
       <c r="G187" s="31"/>
-      <c r="H187" s="75"/>
+      <c r="H187" s="52"/>
       <c r="I187" s="31" t="s">
         <v>21</v>
       </c>
@@ -10581,13 +10186,13 @@
       <c r="A188" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B188" s="76"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="46"/>
-      <c r="D188" s="76"/>
+      <c r="D188" s="53"/>
       <c r="E188" s="46"/>
-      <c r="F188" s="76"/>
+      <c r="F188" s="53"/>
       <c r="G188" s="31"/>
-      <c r="H188" s="75"/>
+      <c r="H188" s="52"/>
       <c r="I188" s="31" t="s">
         <v>21</v>
       </c>
@@ -10615,18 +10220,18 @@
       </c>
     </row>
     <row r="189" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="49" t="s">
+      <c r="A189" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B189" s="78"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="78"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="90"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="77"/>
+      <c r="D189" s="77"/>
+      <c r="E189" s="77"/>
+      <c r="F189" s="78"/>
       <c r="G189" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H189" s="92"/>
+      <c r="H189" s="66"/>
       <c r="I189" s="31" t="s">
         <v>21</v>
       </c>
@@ -10660,18 +10265,18 @@
       </c>
     </row>
     <row r="190" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49" t="s">
+      <c r="A190" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B190" s="78"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="78"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="90"/>
+      <c r="B190" s="77"/>
+      <c r="C190" s="77"/>
+      <c r="D190" s="77"/>
+      <c r="E190" s="77"/>
+      <c r="F190" s="78"/>
       <c r="G190" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H190" s="92"/>
+      <c r="H190" s="66"/>
       <c r="I190" s="31" t="s">
         <v>21</v>
       </c>
@@ -10705,18 +10310,18 @@
       </c>
     </row>
     <row r="191" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="49" t="s">
+      <c r="A191" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B191" s="78"/>
-      <c r="C191" s="50"/>
-      <c r="D191" s="78"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="90"/>
+      <c r="B191" s="77"/>
+      <c r="C191" s="77"/>
+      <c r="D191" s="77"/>
+      <c r="E191" s="77"/>
+      <c r="F191" s="78"/>
       <c r="G191" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H191" s="92"/>
+      <c r="H191" s="66"/>
       <c r="I191" s="31" t="s">
         <v>21</v>
       </c>
@@ -10750,18 +10355,18 @@
       </c>
     </row>
     <row r="192" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="49" t="s">
+      <c r="A192" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B192" s="78"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="78"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="90"/>
+      <c r="B192" s="77"/>
+      <c r="C192" s="77"/>
+      <c r="D192" s="77"/>
+      <c r="E192" s="77"/>
+      <c r="F192" s="78"/>
       <c r="G192" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H192" s="92"/>
+      <c r="H192" s="66"/>
       <c r="I192" s="31" t="s">
         <v>21</v>
       </c>
@@ -10790,20 +10395,18 @@
       </c>
     </row>
     <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B193" s="78"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="78"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="90"/>
+      <c r="B193" s="77"/>
+      <c r="C193" s="77"/>
+      <c r="D193" s="77"/>
+      <c r="E193" s="77"/>
+      <c r="F193" s="78"/>
       <c r="G193" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H193" s="92">
-        <v>0</v>
-      </c>
+      <c r="H193" s="66"/>
       <c r="I193" s="31" t="s">
         <v>21</v>
       </c>
@@ -10832,20 +10435,18 @@
       </c>
     </row>
     <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="49" t="s">
+      <c r="A194" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B194" s="78"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="78"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="90"/>
+      <c r="B194" s="77"/>
+      <c r="C194" s="77"/>
+      <c r="D194" s="77"/>
+      <c r="E194" s="77"/>
+      <c r="F194" s="78"/>
       <c r="G194" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H194" s="92">
-        <v>0</v>
-      </c>
+      <c r="H194" s="66"/>
       <c r="I194" s="31" t="s">
         <v>21</v>
       </c>
@@ -10874,20 +10475,18 @@
       </c>
     </row>
     <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="49" t="s">
+      <c r="A195" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="78"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="90"/>
+      <c r="B195" s="77"/>
+      <c r="C195" s="77"/>
+      <c r="D195" s="77"/>
+      <c r="E195" s="77"/>
+      <c r="F195" s="78"/>
       <c r="G195" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H195" s="92">
-        <v>0</v>
-      </c>
+      <c r="H195" s="66"/>
       <c r="I195" s="31" t="s">
         <v>21</v>
       </c>
@@ -10916,20 +10515,18 @@
       </c>
     </row>
     <row r="196" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="49" t="s">
+      <c r="A196" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B196" s="78"/>
-      <c r="C196" s="50"/>
-      <c r="D196" s="78"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="90"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="77"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="77"/>
+      <c r="F196" s="78"/>
       <c r="G196" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H196" s="92">
-        <v>0</v>
-      </c>
+      <c r="H196" s="66"/>
       <c r="I196" s="31" t="s">
         <v>21</v>
       </c>
@@ -10961,23 +10558,21 @@
       <c r="A197" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B197" s="79"/>
+      <c r="B197" s="54"/>
       <c r="C197" s="48">
         <v>0.5</v>
       </c>
-      <c r="D197" s="79" t="s">
+      <c r="D197" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E197" s="48"/>
-      <c r="F197" s="79" t="s">
+      <c r="F197" s="54" t="s">
         <v>45</v>
       </c>
       <c r="G197" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H197" s="92">
-        <v>0</v>
-      </c>
+      <c r="H197" s="66"/>
       <c r="I197" s="31" t="s">
         <v>21</v>
       </c>
@@ -11009,25 +10604,23 @@
       <c r="A198" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B198" s="75"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="29">
         <v>2</v>
       </c>
-      <c r="D198" s="75" t="s">
+      <c r="D198" s="52" t="s">
         <v>96</v>
       </c>
       <c r="E198" s="29">
         <v>0.5</v>
       </c>
-      <c r="F198" s="75" t="s">
+      <c r="F198" s="52" t="s">
         <v>45</v>
       </c>
       <c r="G198" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H198" s="92">
-        <v>0</v>
-      </c>
+      <c r="H198" s="66"/>
       <c r="I198" s="31" t="s">
         <v>21</v>
       </c>
@@ -11059,23 +10652,21 @@
       <c r="A199" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B199" s="75">
+      <c r="B199" s="52">
         <v>0</v>
       </c>
       <c r="C199" s="31"/>
-      <c r="D199" s="75" t="s">
+      <c r="D199" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E199" s="31">
         <v>0</v>
       </c>
-      <c r="F199" s="75"/>
+      <c r="F199" s="52"/>
       <c r="G199" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H199" s="92">
-        <v>0</v>
-      </c>
+      <c r="H199" s="66"/>
       <c r="I199" s="31" t="s">
         <v>21</v>
       </c>
@@ -11106,23 +10697,21 @@
       <c r="A200" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B200" s="75">
+      <c r="B200" s="52">
         <v>0</v>
       </c>
       <c r="C200" s="31"/>
-      <c r="D200" s="75" t="s">
+      <c r="D200" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="31">
         <v>0</v>
       </c>
-      <c r="F200" s="75"/>
+      <c r="F200" s="52"/>
       <c r="G200" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H200" s="92">
-        <v>0</v>
-      </c>
+      <c r="H200" s="66"/>
       <c r="I200" s="31" t="s">
         <v>21</v>
       </c>
@@ -11153,23 +10742,21 @@
       <c r="A201" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B201" s="75">
+      <c r="B201" s="52">
         <v>0</v>
       </c>
       <c r="C201" s="31"/>
-      <c r="D201" s="75" t="s">
+      <c r="D201" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E201" s="31">
         <v>0</v>
       </c>
-      <c r="F201" s="75"/>
+      <c r="F201" s="52"/>
       <c r="G201" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H201" s="92">
-        <v>0</v>
-      </c>
+      <c r="H201" s="66"/>
       <c r="I201" s="31" t="s">
         <v>21</v>
       </c>
@@ -11200,23 +10787,21 @@
       <c r="A202" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B202" s="75">
+      <c r="B202" s="52">
         <v>0</v>
       </c>
       <c r="C202" s="31"/>
-      <c r="D202" s="75" t="s">
+      <c r="D202" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E202" s="31">
         <v>0</v>
       </c>
-      <c r="F202" s="75"/>
+      <c r="F202" s="52"/>
       <c r="G202" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H202" s="92">
-        <v>0</v>
-      </c>
+      <c r="H202" s="66"/>
       <c r="I202" s="31" t="s">
         <v>21</v>
       </c>
@@ -11247,23 +10832,21 @@
       <c r="A203" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B203" s="75">
+      <c r="B203" s="52">
         <v>0</v>
       </c>
       <c r="C203" s="31"/>
-      <c r="D203" s="75" t="s">
+      <c r="D203" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E203" s="31">
         <v>0</v>
       </c>
-      <c r="F203" s="75"/>
+      <c r="F203" s="52"/>
       <c r="G203" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H203" s="92">
-        <v>0</v>
-      </c>
+      <c r="H203" s="66"/>
       <c r="I203" s="31" t="s">
         <v>21</v>
       </c>
@@ -11294,23 +10877,21 @@
       <c r="A204" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B204" s="75">
+      <c r="B204" s="52">
         <v>0</v>
       </c>
       <c r="C204" s="31"/>
-      <c r="D204" s="75" t="s">
+      <c r="D204" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E204" s="31">
         <v>0</v>
       </c>
-      <c r="F204" s="75"/>
+      <c r="F204" s="52"/>
       <c r="G204" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H204" s="92">
-        <v>0</v>
-      </c>
+      <c r="H204" s="66"/>
       <c r="I204" s="31" t="s">
         <v>21</v>
       </c>
@@ -11341,23 +10922,21 @@
       <c r="A205" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B205" s="75">
+      <c r="B205" s="52">
         <v>0</v>
       </c>
       <c r="C205" s="31"/>
-      <c r="D205" s="75" t="s">
+      <c r="D205" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="31">
         <v>0</v>
       </c>
-      <c r="F205" s="75"/>
+      <c r="F205" s="52"/>
       <c r="G205" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H205" s="92">
-        <v>0</v>
-      </c>
+      <c r="H205" s="66"/>
       <c r="I205" s="31" t="s">
         <v>21</v>
       </c>
@@ -11386,23 +10965,21 @@
       <c r="A206" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B206" s="75">
+      <c r="B206" s="52">
         <v>0</v>
       </c>
       <c r="C206" s="31"/>
-      <c r="D206" s="75" t="s">
+      <c r="D206" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E206" s="31">
         <v>0</v>
       </c>
-      <c r="F206" s="75"/>
+      <c r="F206" s="52"/>
       <c r="G206" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H206" s="92">
-        <v>0</v>
-      </c>
+      <c r="H206" s="66"/>
       <c r="I206" s="31" t="s">
         <v>21</v>
       </c>
@@ -11433,23 +11010,21 @@
       <c r="A207" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B207" s="75">
+      <c r="B207" s="52">
         <v>0</v>
       </c>
       <c r="C207" s="31"/>
-      <c r="D207" s="75" t="s">
+      <c r="D207" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E207" s="31">
         <v>0</v>
       </c>
-      <c r="F207" s="75"/>
+      <c r="F207" s="52"/>
       <c r="G207" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H207" s="92">
-        <v>0</v>
-      </c>
+      <c r="H207" s="66"/>
       <c r="I207" s="31" t="s">
         <v>21</v>
       </c>
@@ -11480,23 +11055,21 @@
       <c r="A208" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B208" s="75">
+      <c r="B208" s="52">
         <v>0</v>
       </c>
       <c r="C208" s="31"/>
-      <c r="D208" s="75" t="s">
+      <c r="D208" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E208" s="31">
         <v>0</v>
       </c>
-      <c r="F208" s="75"/>
+      <c r="F208" s="52"/>
       <c r="G208" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H208" s="92">
-        <v>0</v>
-      </c>
+      <c r="H208" s="66"/>
       <c r="I208" s="31" t="s">
         <v>21</v>
       </c>
@@ -11527,23 +11100,21 @@
       <c r="A209" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B209" s="75">
+      <c r="B209" s="52">
         <v>0</v>
       </c>
       <c r="C209" s="31"/>
-      <c r="D209" s="75" t="s">
+      <c r="D209" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E209" s="31">
         <v>0</v>
       </c>
-      <c r="F209" s="75"/>
+      <c r="F209" s="52"/>
       <c r="G209" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H209" s="92">
-        <v>0</v>
-      </c>
+      <c r="H209" s="66"/>
       <c r="I209" s="31" t="s">
         <v>21</v>
       </c>
@@ -11574,23 +11145,21 @@
       <c r="A210" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B210" s="75">
+      <c r="B210" s="52">
         <v>0</v>
       </c>
       <c r="C210" s="31"/>
-      <c r="D210" s="75" t="s">
+      <c r="D210" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E210" s="31">
         <v>0</v>
       </c>
-      <c r="F210" s="75"/>
+      <c r="F210" s="52"/>
       <c r="G210" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H210" s="92">
-        <v>0</v>
-      </c>
+      <c r="H210" s="66"/>
       <c r="I210" s="31" t="s">
         <v>21</v>
       </c>
@@ -11621,23 +11190,21 @@
       <c r="A211" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B211" s="75">
+      <c r="B211" s="52">
         <v>0</v>
       </c>
       <c r="C211" s="31"/>
-      <c r="D211" s="75" t="s">
+      <c r="D211" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E211" s="31">
         <v>0</v>
       </c>
-      <c r="F211" s="75"/>
+      <c r="F211" s="52"/>
       <c r="G211" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H211" s="92">
-        <v>0</v>
-      </c>
+      <c r="H211" s="66"/>
       <c r="I211" s="31" t="s">
         <v>21</v>
       </c>
@@ -11668,23 +11235,21 @@
       <c r="A212" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B212" s="75">
+      <c r="B212" s="52">
         <v>0</v>
       </c>
       <c r="C212" s="31"/>
-      <c r="D212" s="75" t="s">
+      <c r="D212" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E212" s="31">
         <v>0</v>
       </c>
-      <c r="F212" s="75"/>
+      <c r="F212" s="52"/>
       <c r="G212" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H212" s="92">
-        <v>0</v>
-      </c>
+      <c r="H212" s="66"/>
       <c r="I212" s="31" t="s">
         <v>21</v>
       </c>
@@ -11715,23 +11280,21 @@
       <c r="A213" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B213" s="75">
+      <c r="B213" s="52">
         <v>0</v>
       </c>
       <c r="C213" s="31"/>
-      <c r="D213" s="75" t="s">
+      <c r="D213" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E213" s="31">
         <v>0</v>
       </c>
-      <c r="F213" s="75"/>
+      <c r="F213" s="52"/>
       <c r="G213" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H213" s="92">
-        <v>0</v>
-      </c>
+      <c r="H213" s="66"/>
       <c r="I213" s="31" t="s">
         <v>21</v>
       </c>
@@ -11762,23 +11325,21 @@
       <c r="A214" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B214" s="75">
+      <c r="B214" s="52">
         <v>0</v>
       </c>
       <c r="C214" s="31"/>
-      <c r="D214" s="75" t="s">
+      <c r="D214" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E214" s="31">
         <v>0</v>
       </c>
-      <c r="F214" s="75"/>
+      <c r="F214" s="52"/>
       <c r="G214" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H214" s="92">
-        <v>0</v>
-      </c>
+      <c r="H214" s="66"/>
       <c r="I214" s="31" t="s">
         <v>21</v>
       </c>
@@ -11809,23 +11370,21 @@
       <c r="A215" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B215" s="75">
+      <c r="B215" s="52">
         <v>0</v>
       </c>
       <c r="C215" s="31"/>
-      <c r="D215" s="75" t="s">
+      <c r="D215" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="31">
         <v>0</v>
       </c>
-      <c r="F215" s="75"/>
+      <c r="F215" s="52"/>
       <c r="G215" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H215" s="92">
-        <v>0</v>
-      </c>
+      <c r="H215" s="66"/>
       <c r="I215" s="31" t="s">
         <v>21</v>
       </c>
@@ -11856,23 +11415,21 @@
       <c r="A216" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B216" s="75">
+      <c r="B216" s="52">
         <v>0</v>
       </c>
       <c r="C216" s="31"/>
-      <c r="D216" s="75" t="s">
+      <c r="D216" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E216" s="31">
         <v>0</v>
       </c>
-      <c r="F216" s="75"/>
+      <c r="F216" s="52"/>
       <c r="G216" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H216" s="92">
-        <v>0</v>
-      </c>
+      <c r="H216" s="66"/>
       <c r="I216" s="31" t="s">
         <v>21</v>
       </c>
@@ -11903,23 +11460,21 @@
       <c r="A217" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B217" s="75">
+      <c r="B217" s="52">
         <v>0</v>
       </c>
       <c r="C217" s="31"/>
-      <c r="D217" s="75" t="s">
+      <c r="D217" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E217" s="31">
         <v>0</v>
       </c>
-      <c r="F217" s="75"/>
+      <c r="F217" s="52"/>
       <c r="G217" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H217" s="92">
-        <v>0</v>
-      </c>
+      <c r="H217" s="66"/>
       <c r="I217" s="31" t="s">
         <v>21</v>
       </c>
@@ -11950,23 +11505,21 @@
       <c r="A218" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B218" s="75">
+      <c r="B218" s="52">
         <v>0</v>
       </c>
       <c r="C218" s="31"/>
-      <c r="D218" s="75" t="s">
+      <c r="D218" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E218" s="31">
         <v>0</v>
       </c>
-      <c r="F218" s="75"/>
+      <c r="F218" s="52"/>
       <c r="G218" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H218" s="92">
-        <v>0</v>
-      </c>
+      <c r="H218" s="66"/>
       <c r="I218" s="31" t="s">
         <v>21</v>
       </c>
@@ -11997,23 +11550,21 @@
       <c r="A219" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B219" s="75">
+      <c r="B219" s="52">
         <v>0</v>
       </c>
       <c r="C219" s="31"/>
-      <c r="D219" s="75" t="s">
+      <c r="D219" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E219" s="31">
         <v>0</v>
       </c>
-      <c r="F219" s="75"/>
+      <c r="F219" s="52"/>
       <c r="G219" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H219" s="92">
-        <v>0</v>
-      </c>
+      <c r="H219" s="66"/>
       <c r="I219" s="31" t="s">
         <v>21</v>
       </c>
@@ -12044,23 +11595,21 @@
       <c r="A220" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B220" s="75">
+      <c r="B220" s="52">
         <v>0</v>
       </c>
       <c r="C220" s="31"/>
-      <c r="D220" s="75" t="s">
+      <c r="D220" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E220" s="31">
         <v>0</v>
       </c>
-      <c r="F220" s="75"/>
+      <c r="F220" s="52"/>
       <c r="G220" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H220" s="92">
-        <v>0</v>
-      </c>
+      <c r="H220" s="66"/>
       <c r="I220" s="31" t="s">
         <v>21</v>
       </c>
@@ -12091,23 +11640,21 @@
       <c r="A221" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B221" s="75">
+      <c r="B221" s="52">
         <v>0</v>
       </c>
       <c r="C221" s="31"/>
-      <c r="D221" s="75" t="s">
+      <c r="D221" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E221" s="31">
         <v>0</v>
       </c>
-      <c r="F221" s="75"/>
+      <c r="F221" s="52"/>
       <c r="G221" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H221" s="92">
-        <v>0</v>
-      </c>
+      <c r="H221" s="66"/>
       <c r="I221" s="31" t="s">
         <v>21</v>
       </c>
@@ -12138,23 +11685,21 @@
       <c r="A222" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B222" s="75">
+      <c r="B222" s="52">
         <v>0</v>
       </c>
       <c r="C222" s="31"/>
-      <c r="D222" s="75" t="s">
+      <c r="D222" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E222" s="31">
         <v>0</v>
       </c>
-      <c r="F222" s="75"/>
+      <c r="F222" s="52"/>
       <c r="G222" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H222" s="92">
-        <v>0</v>
-      </c>
+      <c r="H222" s="66"/>
       <c r="I222" s="31" t="s">
         <v>21</v>
       </c>
@@ -12185,23 +11730,21 @@
       <c r="A223" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B223" s="75">
+      <c r="B223" s="52">
         <v>0</v>
       </c>
       <c r="C223" s="31"/>
-      <c r="D223" s="75" t="s">
+      <c r="D223" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E223" s="31">
         <v>0</v>
       </c>
-      <c r="F223" s="75"/>
+      <c r="F223" s="52"/>
       <c r="G223" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H223" s="92">
-        <v>0</v>
-      </c>
+      <c r="H223" s="66"/>
       <c r="I223" s="31" t="s">
         <v>21</v>
       </c>
@@ -12232,23 +11775,21 @@
       <c r="A224" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B224" s="75">
+      <c r="B224" s="52">
         <v>0</v>
       </c>
       <c r="C224" s="31"/>
-      <c r="D224" s="75" t="s">
+      <c r="D224" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E224" s="31">
         <v>0</v>
       </c>
-      <c r="F224" s="75"/>
+      <c r="F224" s="52"/>
       <c r="G224" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H224" s="92">
-        <v>0</v>
-      </c>
+      <c r="H224" s="66"/>
       <c r="I224" s="31" t="s">
         <v>21</v>
       </c>
@@ -12279,23 +11820,21 @@
       <c r="A225" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B225" s="75">
+      <c r="B225" s="52">
         <v>0</v>
       </c>
       <c r="C225" s="31"/>
-      <c r="D225" s="75" t="s">
+      <c r="D225" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E225" s="31">
         <v>0</v>
       </c>
-      <c r="F225" s="75"/>
+      <c r="F225" s="52"/>
       <c r="G225" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H225" s="92">
-        <v>0</v>
-      </c>
+      <c r="H225" s="66"/>
       <c r="I225" s="31" t="s">
         <v>21</v>
       </c>
@@ -12328,23 +11867,21 @@
       <c r="A226" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B226" s="75">
+      <c r="B226" s="52">
         <v>0</v>
       </c>
       <c r="C226" s="31"/>
-      <c r="D226" s="75" t="s">
+      <c r="D226" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E226" s="31">
         <v>0</v>
       </c>
-      <c r="F226" s="75"/>
+      <c r="F226" s="52"/>
       <c r="G226" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H226" s="92">
-        <v>0</v>
-      </c>
+      <c r="H226" s="66"/>
       <c r="I226" s="31" t="s">
         <v>128</v>
       </c>
@@ -12376,23 +11913,21 @@
       <c r="A227" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B227" s="75">
+      <c r="B227" s="52">
         <v>0</v>
       </c>
       <c r="C227" s="31"/>
-      <c r="D227" s="75" t="s">
+      <c r="D227" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E227" s="31">
         <v>0</v>
       </c>
-      <c r="F227" s="75"/>
+      <c r="F227" s="52"/>
       <c r="G227" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H227" s="92">
-        <v>0</v>
-      </c>
+      <c r="H227" s="66"/>
       <c r="I227" s="31" t="s">
         <v>21</v>
       </c>
@@ -12422,13 +11957,13 @@
     </row>
     <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="31"/>
-      <c r="B228" s="75"/>
+      <c r="B228" s="52"/>
       <c r="C228" s="31"/>
-      <c r="D228" s="75"/>
+      <c r="D228" s="52"/>
       <c r="E228" s="31"/>
-      <c r="F228" s="75"/>
+      <c r="F228" s="52"/>
       <c r="G228" s="31"/>
-      <c r="H228" s="92"/>
+      <c r="H228" s="66"/>
       <c r="I228" s="31"/>
       <c r="J228" s="31"/>
       <c r="K228" s="31"/>
@@ -12439,21 +11974,21 @@
       <c r="P228" s="23"/>
     </row>
     <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="55" t="s">
+      <c r="A229" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B229" s="74"/>
-      <c r="C229" s="55"/>
-      <c r="D229" s="74"/>
-      <c r="E229" s="55"/>
-      <c r="F229" s="74"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="74"/>
-      <c r="I229" s="55"/>
-      <c r="J229" s="55"/>
-      <c r="K229" s="55"/>
-      <c r="L229" s="55"/>
-      <c r="M229" s="55"/>
+      <c r="B229" s="51"/>
+      <c r="C229" s="80"/>
+      <c r="D229" s="51"/>
+      <c r="E229" s="80"/>
+      <c r="F229" s="51"/>
+      <c r="G229" s="80"/>
+      <c r="H229" s="51"/>
+      <c r="I229" s="80"/>
+      <c r="J229" s="80"/>
+      <c r="K229" s="80"/>
+      <c r="L229" s="80"/>
+      <c r="M229" s="80"/>
       <c r="N229" s="30">
         <f>SUM(N34:N227)</f>
         <v>0</v>
@@ -12468,13 +12003,13 @@
       <c r="A231" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B231" s="80"/>
+      <c r="B231" s="55"/>
       <c r="C231" s="43"/>
-      <c r="D231" s="80"/>
+      <c r="D231" s="55"/>
       <c r="E231" s="43"/>
-      <c r="F231" s="80"/>
+      <c r="F231" s="55"/>
       <c r="G231" s="43"/>
-      <c r="H231" s="80"/>
+      <c r="H231" s="55"/>
       <c r="I231" s="43"/>
       <c r="J231" s="43"/>
       <c r="K231" s="43"/>
@@ -12485,16 +12020,16 @@
       <c r="A232" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B232" s="81"/>
+      <c r="B232" s="56"/>
       <c r="C232" s="34"/>
-      <c r="D232" s="86">
+      <c r="D232" s="61">
         <f>SUM(P34:P142)</f>
         <v>0</v>
       </c>
       <c r="E232" s="37"/>
-      <c r="F232" s="86"/>
+      <c r="F232" s="61"/>
       <c r="G232" s="37"/>
-      <c r="H232" s="86"/>
+      <c r="H232" s="61"/>
       <c r="I232" s="37"/>
       <c r="J232" s="37"/>
       <c r="K232" s="37"/>
@@ -12505,16 +12040,16 @@
       <c r="A233" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B233" s="81"/>
+      <c r="B233" s="56"/>
       <c r="C233" s="34"/>
-      <c r="D233" s="86">
+      <c r="D233" s="61">
         <f>SUM(P175:P198)</f>
         <v>0</v>
       </c>
       <c r="E233" s="37"/>
-      <c r="F233" s="86"/>
+      <c r="F233" s="61"/>
       <c r="G233" s="37"/>
-      <c r="H233" s="86"/>
+      <c r="H233" s="61"/>
       <c r="I233" s="37"/>
       <c r="J233" s="37"/>
       <c r="K233" s="37"/>
@@ -12525,16 +12060,16 @@
       <c r="A234" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B234" s="81"/>
+      <c r="B234" s="56"/>
       <c r="C234" s="34"/>
-      <c r="D234" s="86">
+      <c r="D234" s="61">
         <f>SUM(P146:P174)</f>
         <v>0</v>
       </c>
       <c r="E234" s="37"/>
-      <c r="F234" s="86"/>
+      <c r="F234" s="61"/>
       <c r="G234" s="37"/>
-      <c r="H234" s="86"/>
+      <c r="H234" s="61"/>
       <c r="I234" s="37"/>
       <c r="J234" s="37"/>
       <c r="K234" s="37"/>
@@ -12545,16 +12080,16 @@
       <c r="A235" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B235" s="81"/>
+      <c r="B235" s="56"/>
       <c r="C235" s="34"/>
-      <c r="D235" s="86">
+      <c r="D235" s="61">
         <f>SUM(P199:P225)</f>
         <v>0</v>
       </c>
       <c r="E235" s="37"/>
-      <c r="F235" s="86"/>
+      <c r="F235" s="61"/>
       <c r="G235" s="37"/>
-      <c r="H235" s="86"/>
+      <c r="H235" s="61"/>
       <c r="I235" s="37"/>
       <c r="J235" s="37"/>
       <c r="K235" s="37"/>
@@ -12565,16 +12100,16 @@
       <c r="A236" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B236" s="81"/>
+      <c r="B236" s="56"/>
       <c r="C236" s="34"/>
-      <c r="D236" s="87">
+      <c r="D236" s="62">
         <f>SUM(P143:P145)</f>
         <v>0</v>
       </c>
       <c r="E236" s="40"/>
-      <c r="F236" s="91"/>
+      <c r="F236" s="65"/>
       <c r="G236" s="40"/>
-      <c r="H236" s="91"/>
+      <c r="H236" s="65"/>
       <c r="I236" s="40"/>
       <c r="J236" s="40"/>
       <c r="K236" s="40"/>
@@ -12585,16 +12120,16 @@
       <c r="A237" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B237" s="81"/>
+      <c r="B237" s="56"/>
       <c r="C237" s="34"/>
-      <c r="D237" s="87">
+      <c r="D237" s="62">
         <f>SUM(P226:P227)</f>
         <v>0</v>
       </c>
       <c r="E237" s="40"/>
-      <c r="F237" s="91"/>
+      <c r="F237" s="65"/>
       <c r="G237" s="40"/>
-      <c r="H237" s="91"/>
+      <c r="H237" s="65"/>
       <c r="I237" s="40"/>
       <c r="J237" s="40"/>
       <c r="K237" s="40"/>
@@ -12605,18 +12140,18 @@
       <c r="A238" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B238" s="82">
+      <c r="B238" s="57">
         <v>0.15</v>
       </c>
       <c r="C238" s="1"/>
-      <c r="D238" s="88">
+      <c r="D238" s="63">
         <f>(D232+D233+D234+D235+D236+D237)*B238</f>
         <v>0</v>
       </c>
       <c r="E238" s="38"/>
-      <c r="F238" s="88"/>
+      <c r="F238" s="63"/>
       <c r="G238" s="38"/>
-      <c r="H238" s="88"/>
+      <c r="H238" s="63"/>
       <c r="I238" s="38"/>
       <c r="J238" s="38"/>
       <c r="K238" s="38"/>
@@ -12627,16 +12162,16 @@
       <c r="A239" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B239" s="83"/>
+      <c r="B239" s="58"/>
       <c r="C239" s="36"/>
-      <c r="D239" s="89">
+      <c r="D239" s="64">
         <f>D232+D233+D234+D235+D236+D237+D238</f>
         <v>0</v>
       </c>
       <c r="E239" s="39"/>
-      <c r="F239" s="89"/>
+      <c r="F239" s="64"/>
       <c r="G239" s="39"/>
-      <c r="H239" s="89"/>
+      <c r="H239" s="64"/>
       <c r="I239" s="39"/>
       <c r="J239" s="39"/>
       <c r="K239" s="39"/>
@@ -12682,35 +12217,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="54" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="11" style="54" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="79" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="11" style="79" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="79" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="80" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -13235,32 +12770,32 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="80" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -13439,35 +12974,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.5546875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11" style="54" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="54" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="54" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="0.5546875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11" style="79" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="79" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="79" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="8"/>
       <c r="T1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="57"/>
+      <c r="U1" s="82"/>
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -13874,22 +13409,22 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" s="58"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="73" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="51"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="27">
         <f>SUM(I5:I11)</f>
         <v>121.40400000000001</v>
@@ -13900,16 +13435,16 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="51"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="27">
         <f>SUM(I3:I4)</f>
         <v>3.1559999999999997</v>
@@ -13920,36 +13455,36 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="64">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="89">
         <f>I12+I13</f>
         <v>124.56000000000002</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="89">
         <f>J12+J13</f>
         <v>124.56000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13976,7 +13511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
